--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -305,7 +305,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,12 +38,15 @@
     <t xml:space="preserve">fill_by_text_input</t>
   </si>
   <si>
-    <t xml:space="preserve">topic</t>
+    <t xml:space="preserve">_topic</t>
   </si>
   <si>
     <t xml:space="preserve">default_value</t>
   </si>
   <si>
+    <t xml:space="preserve">limits</t>
+  </si>
+  <si>
     <t xml:space="preserve">weight</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t xml:space="preserve">Введите показатель веса в кг</t>
   </si>
   <si>
+    <t xml:space="preserve">40 160</t>
+  </si>
+  <si>
     <t xml:space="preserve">height</t>
   </si>
   <si>
@@ -72,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">Введите показатель роста в см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140 200</t>
   </si>
   <si>
     <t xml:space="preserve">weight_before</t>
@@ -299,13 +308,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
@@ -336,149 +345,161 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -499,11 +520,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
@@ -515,30 +536,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -546,16 +567,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -563,16 +584,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -580,13 +601,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -598,16 +619,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -615,13 +636,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -633,16 +654,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -650,16 +671,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,10 +47,28 @@
     <t xml:space="preserve">limits</t>
   </si>
   <si>
+    <t xml:space="preserve">height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood_vol_count, sma_count, bleed_%_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рост</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рост: {}см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель роста в см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140 200</t>
+  </si>
+  <si>
     <t xml:space="preserve">weight</t>
   </si>
   <si>
-    <t xml:space="preserve">drag_count, blood_vol_count, sma_count</t>
+    <t xml:space="preserve">drag_count, blood_vol_count, sma_count, bleed_%_count</t>
   </si>
   <si>
     <t xml:space="preserve">вес</t>
@@ -65,28 +83,10 @@
     <t xml:space="preserve">40 160</t>
   </si>
   <si>
-    <t xml:space="preserve">height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood_vol_count, sma_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рост</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рост: {}см</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введите показатель роста в см</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140 200</t>
-  </si>
-  <si>
     <t xml:space="preserve">weight_before</t>
   </si>
   <si>
-    <t xml:space="preserve">blood_vol_count</t>
+    <t xml:space="preserve">blood_vol_count, bleed_%_count</t>
   </si>
   <si>
     <t xml:space="preserve">вес до беременности</t>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t xml:space="preserve">Введите показатель веса до беременности в кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bleed_vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bleed_%_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объем кровопотери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объем кровопотери: {}мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите объем кровопотери в мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no limits</t>
   </si>
   <si>
     <t xml:space="preserve">fetus</t>
@@ -213,9 +231,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -282,12 +301,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,16 +335,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="98.83"/>
@@ -427,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,17 +467,20 @@
       <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -459,47 +489,71 @@
         <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -507,8 +561,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -524,7 +578,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
@@ -536,30 +590,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -567,16 +621,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -584,16 +638,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -601,13 +655,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -619,16 +673,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -636,13 +690,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -654,16 +708,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -671,16 +725,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -691,8 +745,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t xml:space="preserve">d_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kes_time_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время поступления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время поступления: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда пациент ПОСТУПИЛ в отделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время перевода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время перевода: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда пациент ВЫБЫЛ из отделения</t>
   </si>
   <si>
     <t xml:space="preserve">parameter_id</t>
@@ -335,13 +362,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
@@ -556,13 +583,67 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -578,7 +659,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
@@ -590,30 +671,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -627,10 +708,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -638,16 +719,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -655,13 +736,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -679,10 +760,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -690,13 +771,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -708,16 +789,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -731,10 +812,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -745,8 +826,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -176,7 +176,8 @@
     <t xml:space="preserve">время поступления: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда пациент ПОСТУПИЛ в отделение</t>
+    <t xml:space="preserve">ПОСТУПЛЕНИЕ: 
+отправьте сообщение в формате “дд.мм.гг чч:мм”</t>
   </si>
   <si>
     <t xml:space="preserve">time_out</t>
@@ -188,7 +189,8 @@
     <t xml:space="preserve">время перевода: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда пациент ВЫБЫЛ из отделения</t>
+    <t xml:space="preserve">ПЕРЕВОД: 
+отправьте сообщение в формате “дд.мм.гг чч:мм”</t>
   </si>
   <si>
     <t xml:space="preserve">parameter_id</t>
@@ -263,7 +265,7 @@
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -284,6 +286,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,6 +350,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -364,11 +379,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
@@ -583,7 +598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>47</v>
       </c>
@@ -600,7 +615,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -610,7 +625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>52</v>
       </c>
@@ -627,7 +642,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -659,7 +674,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">время поступления: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
   </si>
   <si>
     <t xml:space="preserve">ПОСТУПЛЕНИЕ: 
@@ -265,7 +268,7 @@
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -286,11 +289,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,10 +351,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,11 +373,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
@@ -611,12 +605,11 @@
       <c r="D9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
@@ -627,23 +620,22 @@
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0</v>
@@ -657,8 +649,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -674,7 +666,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
@@ -686,30 +678,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -723,10 +715,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -734,16 +726,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -751,13 +743,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -775,10 +767,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -786,13 +778,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -804,16 +796,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -827,10 +819,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -841,8 +833,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -196,6 +196,131 @@
 отправьте сообщение в формате “дд.мм.гг чч:мм”</t>
   </si>
   <si>
+    <t xml:space="preserve">fio2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sofa_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiO2: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель FiO2 в долях от единицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pao2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaO2: {}мм.рт.ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель PaO2 в мм.рт.ст. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">респераторная поддержка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">респераторная поддержка: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Респераторная поддержка?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal_resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тромбоциты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тромбоциты: {}*10^9/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель тромбоцитов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">билирубин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">билирубин: {}мкмоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель билирубина в мкмоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypotension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гипотензия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гипотензия: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка гемодинамики. Выберите вариант. 
+Сокращения: Д - допамин, ДБ - добутамин, НА - норадреналин, А - адреналин. 
+Все дозы в мкг/кг/мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal_hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glasgow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШКГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШКГ: {}б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель ШКГ в баллах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">креатинин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">креатинин: {}мкмоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввведите показатель креатинина в мкмоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diuresis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">диурез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">диурез: {}мл/сут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель суточного диуреза в мл</t>
+  </si>
+  <si>
     <t xml:space="preserve">parameter_id</t>
   </si>
   <si>
@@ -257,6 +382,81 @@
   </si>
   <si>
     <t xml:space="preserve">нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДср. &gt;= 70 мм.рт.ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low_hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДср. &lt; 70 мм.рт.ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">без ВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mid_hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д &lt; 5 или ДБ любая доза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">низкие дозы ВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard_hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НА (А) &lt; 0,1 или Д 5 - 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средние дозы ВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical_hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НА (А) &gt;= 0,1 или Д &gt; 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">высокие дозы ВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не требуется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2_resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">инсуфляция О2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">увл. О2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivl_resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">неинвазианая ИВЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИВЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivl_resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">инвазивная ИВЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИВЛ</t>
   </si>
 </sst>
 </file>
@@ -333,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,6 +554,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,13 +575,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
@@ -631,7 +835,7 @@
       <c r="D10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -641,6 +845,244 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="5" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -660,15 +1102,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -678,30 +1122,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -715,10 +1159,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -726,16 +1170,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -743,13 +1187,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -767,10 +1211,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -778,13 +1222,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -796,16 +1240,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -819,13 +1263,166 @@
         <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -426,7 +426,7 @@
     <t xml:space="preserve">не требуется</t>
   </si>
   <si>
-    <t xml:space="preserve">no support</t>
+    <t xml:space="preserve">no_resp_support</t>
   </si>
   <si>
     <t xml:space="preserve">o2_resp</t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">НИВЛ</t>
   </si>
   <si>
-    <t xml:space="preserve">support</t>
+    <t xml:space="preserve">resp_support</t>
   </si>
   <si>
     <t xml:space="preserve">ivl_resp</t>
@@ -581,7 +581,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
@@ -1105,10 +1105,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Введите показатель PaO2 в мм.рт.ст. </t>
   </si>
   <si>
-    <t xml:space="preserve">resperation</t>
+    <t xml:space="preserve">resp_support</t>
   </si>
   <si>
     <t xml:space="preserve">респераторная поддержка</t>
@@ -330,7 +330,7 @@
     <t xml:space="preserve">text_if_filled</t>
   </si>
   <si>
-    <t xml:space="preserve">sma_risk_factor_count</t>
+    <t xml:space="preserve">count</t>
   </si>
   <si>
     <t xml:space="preserve">big_f</t>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">АДср. &gt;= 70 мм.рт.ст</t>
   </si>
   <si>
-    <t xml:space="preserve">low_hd</t>
+    <t xml:space="preserve">low_hp</t>
   </si>
   <si>
     <t xml:space="preserve">АДср. &lt; 70 мм.рт.ст</t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve">без ВП</t>
   </si>
   <si>
-    <t xml:space="preserve">mid_hd</t>
+    <t xml:space="preserve">mid_hp</t>
   </si>
   <si>
     <t xml:space="preserve">Д &lt; 5 или ДБ любая доза</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">низкие дозы ВП</t>
   </si>
   <si>
-    <t xml:space="preserve">hard_hd</t>
+    <t xml:space="preserve">hard_hp</t>
   </si>
   <si>
     <t xml:space="preserve">НА (А) &lt; 0,1 или Д 5 - 15</t>
@@ -414,7 +414,7 @@
     <t xml:space="preserve">средние дозы ВП</t>
   </si>
   <si>
-    <t xml:space="preserve">critical_hd</t>
+    <t xml:space="preserve">critical_hp</t>
   </si>
   <si>
     <t xml:space="preserve">НА (А) &gt;= 0,1 или Д &gt; 15 </t>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t xml:space="preserve">НИВЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resp_support</t>
   </si>
   <si>
     <t xml:space="preserve">ivl_resp</t>
@@ -577,11 +574,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
@@ -1105,10 +1102,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
@@ -1405,24 +1402,24 @@
         <v>139</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="212">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -199,34 +199,40 @@
     <t xml:space="preserve">fio2</t>
   </si>
   <si>
+    <t xml:space="preserve">sofa_count, apacheII_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiO2: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель FiO2 в долях от единицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pao2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sofa_count, apacheIIFio2less50_count,  apacheII_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaO2: {}мм. рт. ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель PaO2 в мм.рт.ст. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resp_support</t>
+  </si>
+  <si>
     <t xml:space="preserve">sofa_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FiO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FiO2: {}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введите показатель FiO2 в долях от единицы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pao2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaO2: {}мм.рт.ст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введите показатель PaO2 в мм.рт.ст. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">resp_support</t>
   </si>
   <si>
     <t xml:space="preserve">респераторная поддержка</t>
@@ -288,7 +294,7 @@
     <t xml:space="preserve">ШКГ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШКГ: {}б</t>
+    <t xml:space="preserve">ШКГ: {} б.</t>
   </si>
   <si>
     <t xml:space="preserve">Введите показатель ШКГ в баллах</t>
@@ -321,6 +327,237 @@
     <t xml:space="preserve">Введите показатель суточного диуреза в мл</t>
   </si>
   <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apacheIIFio2less50_count,  apacheII_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возраст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возраст: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соколько пациенту полных лет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ректальная температура</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">рект. температура: {} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_x0000_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите покащатель ректальной температуры в градусах Цельсия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ср. АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ср. АД: {} мм. рт. ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель среднего АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧСС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧСС: {} в мин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель ЧСС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breath_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧДД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧДД: {} в мин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель ЧДД</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paco2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apacheII_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaCO2: {}мм. рт. ст.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель PaCO2 в мм.рт.ст. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pHa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pHa: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель pH артериальной крови, круглив если нужно до сотых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">натрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">натрий: {}ммоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель натрия сыворотки крови в ммоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">калий</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">калий: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ммоль/л</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель калия сыворотки крови в ммоль/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гемотокрит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гемотокрит: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель HCT в долях от единицы, округлив до сотых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лейкоциты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лейкоциты: {}*10^9/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите показатель лейкоцитов, округлив до десятых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тяжелая сопут. патология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сопут. патология: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите ДА, если у пациента имеется тяжелое хроническое заболевание хотя бы одной из систем органов.
+- печень (тяжелая портальная гипертензия, печеночно-клеточная недостаточность)
+- сердечно-сосуд. система (СН 4ФК по NYHA, стенокардия покоя)
+- дыхательная система (ДН 3 ст)
+- почки (ХБП, требующая диализа)
+- иммунная система (иммуносупрессия вследствие курсов лучевой, химеотерапии, пульс-терапии ГКС, длительного приема ГКС и/или заболевания, снижающие резистентность к инфекциям (ВИЧ, лейкоз))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">операция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">операция: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пациент поле оперативного вмешательства?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_oper</t>
+  </si>
+  <si>
     <t xml:space="preserve">parameter_id</t>
   </si>
   <si>
@@ -454,18 +691,41 @@
   </si>
   <si>
     <t xml:space="preserve">ИВЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_chronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elect_oper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">плановая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerg_oper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">экстренная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -486,6 +746,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="utkal"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,7 +801,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,19 +810,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,327 +847,328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="98.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="98.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="b">
+      <c r="E5" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="s">
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -900,51 +1176,51 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="3" t="b">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>71</v>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>72</v>
+      <c r="A14" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -952,26 +1228,26 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>76</v>
+      <c r="A15" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -979,77 +1255,77 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>80</v>
+      <c r="A16" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="5" t="b">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>84</v>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>85</v>
+      <c r="A17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>87</v>
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>89</v>
+      <c r="F17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>90</v>
+      <c r="A18" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1057,30 +1333,375 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>94</v>
+      <c r="A19" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +1720,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
@@ -1119,30 +1740,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -1156,10 +1777,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -1167,16 +1788,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -1184,13 +1805,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -1208,10 +1829,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -1219,13 +1840,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -1237,16 +1858,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -1260,44 +1881,44 @@
         <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>84</v>
+      <c r="A10" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>120</v>
+      <c r="A11" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -1305,50 +1926,50 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>126</v>
+      <c r="A13" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>129</v>
+      <c r="A14" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>4</v>
@@ -1356,70 +1977,155 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>193</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>195</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>198</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>201</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -345,7 +345,7 @@
     <t xml:space="preserve">body_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">ректальная температура</t>
+    <t xml:space="preserve">рект. температура</t>
   </si>
   <si>
     <r>
@@ -353,6 +353,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">рект. температура: {} </t>
     </r>
@@ -370,6 +371,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C</t>
     </r>
@@ -468,32 +470,7 @@
     <t xml:space="preserve">калий</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">калий: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ммоль/л</t>
-    </r>
+    <t xml:space="preserve">калий: {}ммоль/л</t>
   </si>
   <si>
     <t xml:space="preserve">Введите показатель калия сыворотки крови в ммоль/л</t>
@@ -725,7 +702,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -746,11 +723,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -801,7 +773,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,14 +787,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,7 +947,7 @@
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="E5" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1188,7 +1152,7 @@
       <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="b">
+      <c r="E13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1267,7 +1231,7 @@
       <c r="D16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="1" t="b">
+      <c r="E16" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1363,13 +1327,13 @@
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="1" t="n">
@@ -1390,13 +1354,13 @@
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="1" t="n">
@@ -1417,13 +1381,13 @@
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E22" s="1" t="n">
@@ -1444,13 +1408,13 @@
       <c r="A23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="1" t="n">
@@ -1471,13 +1435,13 @@
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E24" s="1" t="n">
@@ -1498,13 +1462,13 @@
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="1" t="n">
@@ -1525,13 +1489,13 @@
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -1552,13 +1516,13 @@
       <c r="A27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -1579,7 +1543,7 @@
       <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1592,7 +1556,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1606,7 +1570,7 @@
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1633,7 +1597,7 @@
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1660,20 +1624,20 @@
       <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="1" t="b">
+      <c r="E31" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1684,16 +1648,16 @@
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="1" t="b">
+      <c r="E32" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1726,7 +1690,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
@@ -1891,7 +1855,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -1908,13 +1872,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -1942,7 +1906,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -1959,7 +1923,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -1979,13 +1943,13 @@
       <c r="A15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E15" s="0" t="s">
@@ -1996,7 +1960,7 @@
       <c r="A16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -2013,7 +1977,7 @@
       <c r="A17" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -2030,7 +1994,7 @@
       <c r="A18" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="0" t="s">

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">limits</t>
   </si>
   <si>
+    <t xml:space="preserve">after_dot</t>
+  </si>
+  <si>
     <t xml:space="preserve">height</t>
   </si>
   <si>
@@ -59,12 +62,18 @@
     <t xml:space="preserve">рост: {}см</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">Введите показатель роста в см</t>
   </si>
   <si>
     <t xml:space="preserve">140 200</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">weight</t>
   </si>
   <si>
@@ -126,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">вес плода {}кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
   </si>
   <si>
     <t xml:space="preserve">Оценка веса плода. Выберите вариант</t>
@@ -211,7 +223,13 @@
     <t xml:space="preserve">Введите показатель FiO2 в долях от единицы</t>
   </si>
   <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.21 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">pao2</t>
@@ -380,6 +398,12 @@
     <t xml:space="preserve">Введите покащатель ректальной температуры в градусах Цельсия</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_pressure</t>
   </si>
   <si>
@@ -437,9 +461,6 @@
     <t xml:space="preserve">Введите показатель PaCO2 в мм.рт.ст. </t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">pH</t>
   </si>
   <si>
@@ -473,7 +494,7 @@
     <t xml:space="preserve">калий: {}ммоль/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель калия сыворотки крови в ммоль/л</t>
+    <t xml:space="preserve">Введите показатель калия сыворотки крови в ммоль/л, округлив до десятых</t>
   </si>
   <si>
     <t xml:space="preserve">Hct</t>
@@ -506,7 +527,7 @@
     <t xml:space="preserve">тяжелая сопут. патология</t>
   </si>
   <si>
-    <t xml:space="preserve">сопут. патология: {}</t>
+    <t xml:space="preserve">тяж. сопут. патология: {}</t>
   </si>
   <si>
     <t xml:space="preserve">Выберите ДА, если у пациента имеется тяжелое хроническое заболевание хотя бы одной из систем органов.
@@ -517,7 +538,7 @@
 - иммунная система (иммуносупрессия вследствие курсов лучевой, химеотерапии, пульс-терапии ГКС, длительного приема ГКС и/или заболевания, снижающие резистентность к инфекциям (ВИЧ, лейкоз))</t>
   </si>
   <si>
-    <t xml:space="preserve">no_CHP</t>
+    <t xml:space="preserve">no_chronic</t>
   </si>
   <si>
     <t xml:space="preserve">operation</t>
@@ -670,28 +691,16 @@
     <t xml:space="preserve">ИВЛ</t>
   </si>
   <si>
-    <t xml:space="preserve">no_chronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elect_oper</t>
+    <t xml:space="preserve">elect</t>
   </si>
   <si>
     <t xml:space="preserve">плановая</t>
   </si>
   <si>
-    <t xml:space="preserve">elect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerg_oper</t>
+    <t xml:space="preserve">emerg</t>
   </si>
   <si>
     <t xml:space="preserve">экстренная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerg</t>
   </si>
 </sst>
 </file>
@@ -811,10 +820,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,820 +861,860 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1686,11 +1735,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
@@ -1704,30 +1753,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -1735,16 +1784,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -1752,16 +1801,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-1</v>
@@ -1769,13 +1818,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">C5</f>
@@ -1787,16 +1836,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -1804,13 +1853,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">C7</f>
@@ -1822,16 +1871,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -1839,16 +1888,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -1856,16 +1905,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -1873,16 +1922,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -1890,16 +1939,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2</v>
@@ -1907,16 +1956,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>3</v>
@@ -1924,16 +1973,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>4</v>
@@ -1941,155 +1990,155 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Предъявляет ли пациентка жалобы на потемнение в глазах, одышку, головокружение в положении лежа на спине?</t>
   </si>
   <si>
-    <t xml:space="preserve">d_n</t>
+    <t xml:space="preserve">no_discomfort</t>
   </si>
   <si>
     <t xml:space="preserve">time_in</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve">text_if_filled</t>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t xml:space="preserve">data</t>
   </si>
   <si>
     <t xml:space="preserve">big_f</t>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t xml:space="preserve">маловодие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_y</t>
   </si>
   <si>
     <t xml:space="preserve">да</t>
@@ -822,8 +819,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1458,7 +1455,7 @@
       <c r="F23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1487,7 +1484,7 @@
       <c r="F24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1735,11 +1732,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
@@ -1871,16 +1868,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -1894,10 +1891,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -1911,81 +1908,81 @@
         <v>88</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
+      <c r="E11" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2</v>
+      <c r="E12" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>3</v>
+      <c r="E13" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>4</v>
+      <c r="E14" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,44 +1993,44 @@
         <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>204</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>74</v>
@@ -2041,16 +2038,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>74</v>
@@ -2064,10 +2061,10 @@
         <v>156</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>160</v>
@@ -2081,10 +2078,10 @@
         <v>156</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>156</v>
@@ -2098,10 +2095,10 @@
         <v>161</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>165</v>
@@ -2109,36 +2106,36 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -658,7 +658,7 @@
     <t xml:space="preserve">не требуется</t>
   </si>
   <si>
-    <t xml:space="preserve">no_resp_support</t>
+    <t xml:space="preserve">без поддержки</t>
   </si>
   <si>
     <t xml:space="preserve">o2_resp</t>
@@ -1733,10 +1733,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
@@ -1998,7 +1998,7 @@
       <c r="D15" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
         <v>203</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +2033,7 @@
         <v>206</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,7 +2050,7 @@
         <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -819,7 +819,7 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1733,10 +1733,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">возраст: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Соколько пациенту полных лет?</t>
+    <t xml:space="preserve">Сколько пациенту полных лет?</t>
   </si>
   <si>
     <t xml:space="preserve">body_temp</t>
@@ -366,33 +366,7 @@
     <t xml:space="preserve">рект. температура</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">рект. температура: {} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="utkal"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_x0000_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">C</t>
-    </r>
+    <t xml:space="preserve">рект. температура: {} C</t>
   </si>
   <si>
     <t xml:space="preserve">Введите покащатель ректальной температуры в градусах Цельсия</t>
@@ -470,7 +444,7 @@
     <t xml:space="preserve">pHa: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель pH артериальной крови, круглив если нужно до сотых</t>
+    <t xml:space="preserve">Введите показатель pH артериальной крови, округлив, если нужно, до сотых</t>
   </si>
   <si>
     <t xml:space="preserve">Na</t>
@@ -708,7 +682,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -729,12 +703,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="utkal"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -819,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1732,11 +1700,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>

--- a/oac/program_logic/data/parameters.xlsx
+++ b/oac/program_logic/data/parameters.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель роста в см</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель роста в см</t>
   </si>
   <si>
     <t xml:space="preserve">140 200</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">вес: {}кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель веса в кг</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель веса в кг</t>
   </si>
   <si>
     <t xml:space="preserve">40 160</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">вес до беременности: {}кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель веса до беременности в кг</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель веса до беременности в кг</t>
   </si>
   <si>
     <t xml:space="preserve">bleed_vol</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">объем кровопотери: {}мл</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите объем кровопотери в мл</t>
+    <t xml:space="preserve">Введите с клавиатуры объем кровопотери в мл</t>
   </si>
   <si>
     <t xml:space="preserve">no limits</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">FiO2: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель FiO2 в долях от единицы</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель FiO2 в долях от единицы</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">PaO2: {}мм. рт. ст</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель PaO2 в мм.рт.ст. </t>
+    <t xml:space="preserve">Введите с клавиатуры показатель PaO2 в мм.рт.ст. </t>
   </si>
   <si>
     <t xml:space="preserve">resp_support</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">тромбоциты: {}*10^9/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель тромбоцитов</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель тромбоцитов</t>
   </si>
   <si>
     <t xml:space="preserve">bili</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">билирубин: {}мкмоль/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель билирубина в мкмоль/л</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель билирубина в мкмоль/л</t>
   </si>
   <si>
     <t xml:space="preserve">hypotension</t>
@@ -315,7 +315,7 @@
     <t xml:space="preserve">ШКГ: {} б.</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель ШКГ в баллах</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель ШКГ в баллах</t>
   </si>
   <si>
     <t xml:space="preserve">3 15</t>
@@ -330,7 +330,7 @@
     <t xml:space="preserve">креатинин: {}мкмоль/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ввведите показатель креатинина в мкмоль/л</t>
+    <t xml:space="preserve">Ввведите с клавиатуры показатель креатинина в мкмоль/л</t>
   </si>
   <si>
     <t xml:space="preserve">diuresis</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">диурез: {}мл/сут</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель суточного диуреза в мл</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель суточного диуреза в мл</t>
   </si>
   <si>
     <t xml:space="preserve">age</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">возраст: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Сколько пациенту полных лет?</t>
+    <t xml:space="preserve">Введите с клавиатуры возраст пациента?</t>
   </si>
   <si>
     <t xml:space="preserve">body_temp</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">рект. температура: {} C</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите покащатель ректальной температуры в градусах Цельсия</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель ректальной температуры в градусах Цельсия</t>
   </si>
   <si>
     <t xml:space="preserve">0.0</t>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">ср. АД: {} мм. рт. ст</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель среднего АД</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель среднего АД</t>
   </si>
   <si>
     <t xml:space="preserve">heart_rate</t>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">ЧСС: {} в мин.</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель ЧСС</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель ЧСС</t>
   </si>
   <si>
     <t xml:space="preserve">30 200</t>
@@ -414,7 +414,7 @@
     <t xml:space="preserve">ЧДД: {} в мин.</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель ЧДД</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель ЧДД</t>
   </si>
   <si>
     <t xml:space="preserve"> 0 40</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">PaCO2: {}мм. рт. ст.</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель PaCO2 в мм.рт.ст. </t>
+    <t xml:space="preserve">Введите с клавиатуры показатель PaCO2 в мм.рт.ст. </t>
   </si>
   <si>
     <t xml:space="preserve">pH</t>
@@ -444,7 +444,7 @@
     <t xml:space="preserve">pHa: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель pH артериальной крови, округлив, если нужно, до сотых</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель pH артериальной крови, округлив, если нужно, до сотых</t>
   </si>
   <si>
     <t xml:space="preserve">Na</t>
@@ -456,7 +456,7 @@
     <t xml:space="preserve">натрий: {}ммоль/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель натрия сыворотки крови в ммоль/л</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель натрия сыворотки крови в ммоль/л</t>
   </si>
   <si>
     <t xml:space="preserve">K</t>
@@ -468,7 +468,7 @@
     <t xml:space="preserve">калий: {}ммоль/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель калия сыворотки крови в ммоль/л, округлив до десятых</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель калия сыворотки крови в ммоль/л, округлив до десятых</t>
   </si>
   <si>
     <t xml:space="preserve">Hct</t>
@@ -480,7 +480,7 @@
     <t xml:space="preserve">гемотокрит: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель HCT в долях от единицы, округлив до сотых</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель HCT в долях от единицы, округлив до сотых</t>
   </si>
   <si>
     <t xml:space="preserve">WBC</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">лейкоциты: {}*10^9/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Введите показатель лейкоцитов, округлив до десятых</t>
+    <t xml:space="preserve">Введите с клавиатуры показатель лейкоцитов, округлив до десятых</t>
   </si>
   <si>
     <t xml:space="preserve">chronic</t>
@@ -787,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1704,7 +1704,7 @@
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.84"/>
